--- a/数据整理/stocks/A股/创业板/300740-御家汇.xlsx
+++ b/数据整理/stocks/A股/创业板/300740-御家汇.xlsx
@@ -451,43 +451,53 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -502,20 +512,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.36</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>4.67</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1583</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -530,20 +550,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.36</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.67</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004536</t>
+          <t>001113</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
+          <t>南方大数据100指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>24.74</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2994</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004724</t>
+          <t>005164</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>先锋聚元灵活配置混合A</t>
+          <t>富荣福锦混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2027</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004725</t>
+          <t>005165</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>先锋聚元灵活配置混合C</t>
+          <t>富荣福锦混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2015</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -678,26 +748,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006401</t>
+          <t>010703</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>先锋量化优选灵活配置混合A</t>
+          <t>财通智选消费股票A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -706,26 +786,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006402</t>
+          <t>460009</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>先锋量化优选灵活配置混合C</t>
+          <t>华泰柏瑞量化先行混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.83</t>
+          <t>6.75</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -734,26 +824,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005632</t>
+          <t>010704</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华量化先锋混合</t>
+          <t>财通智选消费股票C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.77</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -762,26 +862,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006157</t>
+          <t>005632</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>财通量化核心优选混合</t>
+          <t>鹏华量化先锋混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.17</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -790,25 +900,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>460009</t>
+          <t>161039</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合A</t>
+          <t>富国中证1000指数增强LOF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>7</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010246</t>
+          <t>001681</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合C</t>
+          <t>新华积极价值灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -846,25 +976,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>001113</t>
+          <t>006401</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>南方大数据100指数A</t>
+          <t>先锋量化优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.19</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>4</v>
       </c>
     </row>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004344</t>
+          <t>002256</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>南方大数据100指数C</t>
+          <t>金信行业优选灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.19</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010703</t>
+          <t>005166</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>财通智选消费股票A</t>
+          <t>嘉实润和量化6个月定期开放混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>68.57</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>24.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010704</t>
+          <t>004536</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>财通智选消费股票C</t>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>68.57</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001681</t>
+          <t>004344</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>新华积极价值灵活配置混合</t>
+          <t>南方大数据100指数C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>29.22</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>161039</t>
+          <t>004724</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>富国中证1000指数增强LOF</t>
+          <t>先锋聚元灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>92.23</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002256</t>
+          <t>006157</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>金信行业优选灵活配置混合</t>
+          <t>财通量化核心优选混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>89.92</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005164</t>
+          <t>004725</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>富荣福锦混合A</t>
+          <t>先锋聚元灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>84.20</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>6</v>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -1070,26 +1280,30 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005165</t>
+          <t>006402</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>富荣福锦混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>84.20</t>
-        </is>
-      </c>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1098,26 +1312,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>005166</t>
+          <t>010246</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>嘉实润和量化6个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>24.04</t>
-        </is>
-      </c>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300740-御家汇.xlsx
+++ b/数据整理/stocks/A股/创业板/300740-御家汇.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1288,7 +1289,6 @@
           <t>先锋量化优选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>93.83</t>
@@ -1320,7 +1320,6 @@
           <t>华泰柏瑞量化先行混合C</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>91.02</t>
@@ -1336,6 +1335,326 @@
       </c>
       <c r="H20" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005164</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富荣福锦混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1827</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005165</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富荣福锦混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1808</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300740-御家汇.xlsx
+++ b/数据整理/stocks/A股/创业板/300740-御家汇.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1660,4 +1661,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300740-御家汇.xlsx
+++ b/数据整理/stocks/A股/创业板/300740-御家汇.xlsx
@@ -1685,12 +1685,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300740-御家汇.xlsx
+++ b/数据整理/stocks/A股/创业板/300740-御家汇.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005164</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>富荣福锦混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.36</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1583</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,30 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005165</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>富荣福锦混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.36</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1555</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.31</v>
       </c>
     </row>
   </sheetData>
@@ -580,6 +532,326 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005164</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富荣福锦混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1827</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005165</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富荣福锦混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1808</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1049</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1343,13 +1615,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1410,22 +1682,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.98</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>82.51</t>
+          <t>93.36</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1827</t>
+          <t>0.1583</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1448,298 +1720,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.51</t>
+          <t>93.36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>4.67</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1808</t>
+          <t>0.1555</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>460009</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化先行混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.46</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1049</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005632</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>鹏华量化先锋混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.85</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.19</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0554</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005167</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实润泽量化一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>27.49</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>005166</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>嘉实润和量化6个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>25.49</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010246</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化先行混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.24</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.53</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.31</v>
       </c>
     </row>
   </sheetData>
